--- a/src/test/resources/Excels/LoginDetails.xlsx
+++ b/src/test/resources/Excels/LoginDetails.xlsx
@@ -65,142 +65,142 @@
     <t>username</t>
   </si>
   <si>
+    <t>demo72986@gmail.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Adjaya@12345</t>
+  </si>
+  <si>
+    <t>invalidUsername</t>
+  </si>
+  <si>
+    <t>johns@gmail.com</t>
+  </si>
+  <si>
+    <t>invalidPassword</t>
+  </si>
+  <si>
+    <t>Test@1234576</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>charlotte</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>alice</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>5327SFS</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>gfhhhs@kazvi.com</t>
+  </si>
+  <si>
+    <t>Pec</t>
+  </si>
+  <si>
+    <t>della@gmail.com</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>VatRegistration</t>
+  </si>
+  <si>
+    <t>3489RTYGJ</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>Rombergstraße</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>Charlotte@12345</t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>city1</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main</t>
+  </si>
+  <si>
+    <t>ZipCode1</t>
+  </si>
+  <si>
+    <t>city2</t>
+  </si>
+  <si>
+    <t>ZipCode2</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>adjayamk@gmail.com</t>
+  </si>
+  <si>
+    <t>Adjaya@123</t>
+  </si>
+  <si>
+    <t>vatname</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>RSIMRC76C01E507</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>Yuvan</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>inviteEmail</t>
+  </si>
+  <si>
+    <t>ad@gmail.com</t>
+  </si>
+  <si>
     <t>fowof27355@nozamas.com</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Adjaya@12345</t>
-  </si>
-  <si>
-    <t>invalidUsername</t>
-  </si>
-  <si>
-    <t>johns@gmail.com</t>
-  </si>
-  <si>
-    <t>invalidPassword</t>
-  </si>
-  <si>
-    <t>Test@1234576</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>charlotte</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>alice</t>
-  </si>
-  <si>
-    <t>Tin</t>
-  </si>
-  <si>
-    <t>5327SFS</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>gfhhhs@kazvi.com</t>
-  </si>
-  <si>
-    <t>Pec</t>
-  </si>
-  <si>
-    <t>della@gmail.com</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>MobileNumber</t>
-  </si>
-  <si>
-    <t>VatRegistration</t>
-  </si>
-  <si>
-    <t>3489RTYGJ</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>Rombergstraße</t>
-  </si>
-  <si>
-    <t>address2</t>
-  </si>
-  <si>
-    <t>Charlotte@12345</t>
-  </si>
-  <si>
-    <t>confirmpassword</t>
-  </si>
-  <si>
-    <t>city1</t>
-  </si>
-  <si>
-    <t>Frankfurt am Main</t>
-  </si>
-  <si>
-    <t>ZipCode1</t>
-  </si>
-  <si>
-    <t>city2</t>
-  </si>
-  <si>
-    <t>ZipCode2</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>adjayamk@gmail.com</t>
-  </si>
-  <si>
-    <t>Adjaya@123</t>
-  </si>
-  <si>
-    <t>demo72986@gmail.com</t>
-  </si>
-  <si>
-    <t>vatname</t>
-  </si>
-  <si>
-    <t>Bernard</t>
-  </si>
-  <si>
-    <t>tin</t>
-  </si>
-  <si>
-    <t>RSIMRC76C01E507</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>Yuvan</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>inviteEmail</t>
-  </si>
-  <si>
-    <t>ad@gmail.com</t>
   </si>
   <si>
     <t>familyname</t>
@@ -2277,7 +2277,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -2306,7 +2306,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2524,7 +2524,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>132</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>133</v>
@@ -2673,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3067,7 +3067,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4060,7 +4060,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4147,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4317,7 +4317,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4330,42 +4330,42 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4415,7 +4415,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4644,7 +4644,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4689,7 +4689,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -4765,7 +4765,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
